--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-Agtr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-Agtr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,57 +537,57 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H2">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.927266656776352</v>
+        <v>0.9721403333333333</v>
       </c>
       <c r="N2">
-        <v>0.927266656776352</v>
+        <v>2.916421</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.4203533802573702</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.4203533802573701</v>
       </c>
       <c r="Q2">
-        <v>71.82907059781412</v>
+        <v>103.9009877847499</v>
       </c>
       <c r="R2">
-        <v>71.82907059781412</v>
+        <v>935.1088900627489</v>
       </c>
       <c r="S2">
-        <v>0.1186672908611009</v>
+        <v>0.06342074490817728</v>
       </c>
       <c r="T2">
-        <v>0.1186672908611009</v>
+        <v>0.06342074490817727</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>76.9701855606306</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H3">
-        <v>76.9701855606306</v>
+        <v>320.635769</v>
       </c>
       <c r="I3">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J3">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.927266656776352</v>
+        <v>1.340533666666667</v>
       </c>
       <c r="N3">
-        <v>0.927266656776352</v>
+        <v>4.021601</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.5796466197426299</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.5796466197426299</v>
       </c>
       <c r="Q3">
-        <v>71.37188663626138</v>
+        <v>143.2743476940188</v>
       </c>
       <c r="R3">
-        <v>71.37188663626138</v>
+        <v>1289.469129246169</v>
       </c>
       <c r="S3">
-        <v>0.1179119868916763</v>
+        <v>0.08745408538186726</v>
       </c>
       <c r="T3">
-        <v>0.1179119868916763</v>
+        <v>0.08745408538186726</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -661,57 +661,57 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>121.711490137238</v>
+        <v>77.232923</v>
       </c>
       <c r="H4">
-        <v>121.711490137238</v>
+        <v>231.698769</v>
       </c>
       <c r="I4">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J4">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.927266656776352</v>
+        <v>0.9721403333333333</v>
       </c>
       <c r="N4">
-        <v>0.927266656776352</v>
+        <v>2.916421</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.4203533802573702</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.4203533802573701</v>
       </c>
       <c r="Q4">
-        <v>112.8590065508246</v>
+        <v>75.08123950952766</v>
       </c>
       <c r="R4">
-        <v>112.8590065508246</v>
+        <v>675.731155585749</v>
       </c>
       <c r="S4">
-        <v>0.186451981700417</v>
+        <v>0.04582928651446774</v>
       </c>
       <c r="T4">
-        <v>0.186451981700417</v>
+        <v>0.04582928651446774</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>140.36676684056</v>
+        <v>77.232923</v>
       </c>
       <c r="H5">
-        <v>140.36676684056</v>
+        <v>231.698769</v>
       </c>
       <c r="I5">
-        <v>0.2150303296163119</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J5">
-        <v>0.2150303296163119</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.927266656776352</v>
+        <v>1.340533666666667</v>
       </c>
       <c r="N5">
-        <v>0.927266656776352</v>
+        <v>4.021601</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.5796466197426299</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5796466197426299</v>
       </c>
       <c r="Q5">
-        <v>130.1574226107518</v>
+        <v>103.5333334565743</v>
       </c>
       <c r="R5">
-        <v>130.1574226107518</v>
+        <v>931.8000011091691</v>
       </c>
       <c r="S5">
-        <v>0.2150303296163119</v>
+        <v>0.06319633018548076</v>
       </c>
       <c r="T5">
-        <v>0.2150303296163119</v>
+        <v>0.06319633018548078</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,57 +785,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>194.159493575321</v>
+        <v>136.676337</v>
       </c>
       <c r="H6">
-        <v>194.159493575321</v>
+        <v>410.029011</v>
       </c>
       <c r="I6">
-        <v>0.2974363579169756</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J6">
-        <v>0.2974363579169756</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.927266656776352</v>
+        <v>0.9721403333333333</v>
       </c>
       <c r="N6">
-        <v>0.927266656776352</v>
+        <v>2.916421</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.4203533802573702</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.4203533802573701</v>
       </c>
       <c r="Q6">
-        <v>180.0376244889775</v>
+        <v>132.868579809959</v>
       </c>
       <c r="R6">
-        <v>180.0376244889775</v>
+        <v>1195.817218289631</v>
       </c>
       <c r="S6">
-        <v>0.2974363579169756</v>
+        <v>0.08110244653204372</v>
       </c>
       <c r="T6">
-        <v>0.2974363579169756</v>
+        <v>0.08110244653204371</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,427 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>136.676337</v>
+      </c>
+      <c r="H7">
+        <v>410.029011</v>
+      </c>
+      <c r="I7">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="J7">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>1.340533666666667</v>
+      </c>
+      <c r="N7">
+        <v>4.021601</v>
+      </c>
+      <c r="O7">
+        <v>0.5796466197426299</v>
+      </c>
+      <c r="P7">
+        <v>0.5796466197426299</v>
+      </c>
+      <c r="Q7">
+        <v>183.219231185179</v>
+      </c>
+      <c r="R7">
+        <v>1648.973080666611</v>
+      </c>
+      <c r="S7">
+        <v>0.1118362815504735</v>
+      </c>
+      <c r="T7">
+        <v>0.1118362815504735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>42.1054306722281</v>
-      </c>
-      <c r="H7">
-        <v>42.1054306722281</v>
-      </c>
-      <c r="I7">
-        <v>0.06450205301351841</v>
-      </c>
-      <c r="J7">
-        <v>0.06450205301351841</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.927266656776352</v>
-      </c>
-      <c r="N7">
-        <v>0.927266656776352</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>39.04296193156542</v>
-      </c>
-      <c r="R7">
-        <v>39.04296193156542</v>
-      </c>
-      <c r="S7">
-        <v>0.06450205301351841</v>
-      </c>
-      <c r="T7">
-        <v>0.06450205301351841</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>143.4557186666667</v>
+      </c>
+      <c r="H8">
+        <v>430.367156</v>
+      </c>
+      <c r="I8">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="J8">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.9721403333333333</v>
+      </c>
+      <c r="N8">
+        <v>2.916421</v>
+      </c>
+      <c r="O8">
+        <v>0.4203533802573702</v>
+      </c>
+      <c r="P8">
+        <v>0.4203533802573701</v>
+      </c>
+      <c r="Q8">
+        <v>139.4590901631862</v>
+      </c>
+      <c r="R8">
+        <v>1255.131811468676</v>
+      </c>
+      <c r="S8">
+        <v>0.08512526753536889</v>
+      </c>
+      <c r="T8">
+        <v>0.08512526753536888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>143.4557186666667</v>
+      </c>
+      <c r="H9">
+        <v>430.367156</v>
+      </c>
+      <c r="I9">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="J9">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>1.340533666666667</v>
+      </c>
+      <c r="N9">
+        <v>4.021601</v>
+      </c>
+      <c r="O9">
+        <v>0.5796466197426299</v>
+      </c>
+      <c r="P9">
+        <v>0.5796466197426299</v>
+      </c>
+      <c r="Q9">
+        <v>192.3072205485284</v>
+      </c>
+      <c r="R9">
+        <v>1730.764984936756</v>
+      </c>
+      <c r="S9">
+        <v>0.1173835536932106</v>
+      </c>
+      <c r="T9">
+        <v>0.1173835536932106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H10">
+        <v>595.794632</v>
+      </c>
+      <c r="I10">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J10">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.9721403333333333</v>
+      </c>
+      <c r="N10">
+        <v>2.916421</v>
+      </c>
+      <c r="O10">
+        <v>0.4203533802573702</v>
+      </c>
+      <c r="P10">
+        <v>0.4203533802573701</v>
+      </c>
+      <c r="Q10">
+        <v>193.0653307168969</v>
+      </c>
+      <c r="R10">
+        <v>1737.587976452072</v>
+      </c>
+      <c r="S10">
+        <v>0.1178463010897994</v>
+      </c>
+      <c r="T10">
+        <v>0.1178463010897993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H11">
+        <v>595.794632</v>
+      </c>
+      <c r="I11">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J11">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>1.340533666666667</v>
+      </c>
+      <c r="N11">
+        <v>4.021601</v>
+      </c>
+      <c r="O11">
+        <v>0.5796466197426299</v>
+      </c>
+      <c r="P11">
+        <v>0.5796466197426299</v>
+      </c>
+      <c r="Q11">
+        <v>266.2275875384258</v>
+      </c>
+      <c r="R11">
+        <v>2396.048287845832</v>
+      </c>
+      <c r="S11">
+        <v>0.162504248292355</v>
+      </c>
+      <c r="T11">
+        <v>0.162504248292355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H12">
+        <v>136.651993</v>
+      </c>
+      <c r="I12">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J12">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.9721403333333333</v>
+      </c>
+      <c r="N12">
+        <v>2.916421</v>
+      </c>
+      <c r="O12">
+        <v>0.4203533802573702</v>
+      </c>
+      <c r="P12">
+        <v>0.4203533802573701</v>
+      </c>
+      <c r="Q12">
+        <v>44.28163800856144</v>
+      </c>
+      <c r="R12">
+        <v>398.534742077053</v>
+      </c>
+      <c r="S12">
+        <v>0.02702933367751316</v>
+      </c>
+      <c r="T12">
+        <v>0.02702933367751315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H13">
+        <v>136.651993</v>
+      </c>
+      <c r="I13">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J13">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>1.340533666666667</v>
+      </c>
+      <c r="N13">
+        <v>4.021601</v>
+      </c>
+      <c r="O13">
+        <v>0.5796466197426299</v>
+      </c>
+      <c r="P13">
+        <v>0.5796466197426299</v>
+      </c>
+      <c r="Q13">
+        <v>61.0621990778659</v>
+      </c>
+      <c r="R13">
+        <v>549.5597917007931</v>
+      </c>
+      <c r="S13">
+        <v>0.03727212063924262</v>
+      </c>
+      <c r="T13">
+        <v>0.03727212063924262</v>
       </c>
     </row>
   </sheetData>
